--- a/DesignerConfigs/Datas/test/test_index.xlsx
+++ b/DesignerConfigs/Datas/test/test_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA41478-0281-4C2F-B200-6C4395886CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B769C-E6CA-4B54-A477-665B5BED3A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B00807C0-132D-41CB-96A1-72442B4254D8}"/>
+    <workbookView xWindow="31095" yWindow="2295" windowWidth="25335" windowHeight="12915" xr2:uid="{B00807C0-132D-41CB-96A1-72442B4254D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>eles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,12 +82,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,44 +403,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE5EA44-0A95-4B8D-86E0-98A825317DB1}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -458,72 +503,12 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
